--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>635.591801565024</v>
+        <v>2980.715730564692</v>
       </c>
       <c r="R2">
-        <v>5720.326214085216</v>
+        <v>26826.44157508223</v>
       </c>
       <c r="S2">
-        <v>0.0003526805105533399</v>
+        <v>0.001382238811676627</v>
       </c>
       <c r="T2">
-        <v>0.00035268051055334</v>
+        <v>0.001382238811676627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>1047.082943278744</v>
+        <v>2890.225149469462</v>
       </c>
       <c r="R3">
-        <v>9423.746489508696</v>
+        <v>26012.02634522515</v>
       </c>
       <c r="S3">
-        <v>0.0005810108722578631</v>
+        <v>0.001340275872373689</v>
       </c>
       <c r="T3">
-        <v>0.0005810108722578632</v>
+        <v>0.001340275872373689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H4">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I4">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J4">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>926.74727412088</v>
+        <v>2943.192161288097</v>
       </c>
       <c r="R4">
-        <v>8340.725467087919</v>
+        <v>26488.72945159287</v>
       </c>
       <c r="S4">
-        <v>0.000514238385369466</v>
+        <v>0.001364838113825806</v>
       </c>
       <c r="T4">
-        <v>0.0005142383853694661</v>
+        <v>0.001364838113825806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H5">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I5">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J5">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>420.0768612774401</v>
+        <v>1174.250619030609</v>
       </c>
       <c r="R5">
-        <v>3780.69175149696</v>
+        <v>10568.25557127548</v>
       </c>
       <c r="S5">
-        <v>0.0002330944507814193</v>
+        <v>0.000544531893335538</v>
       </c>
       <c r="T5">
-        <v>0.0002330944507814193</v>
+        <v>0.0005445318933355379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J6">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>354293.0461839486</v>
+        <v>601941.5339044909</v>
       </c>
       <c r="R6">
-        <v>3188637.415655538</v>
+        <v>5417473.805140418</v>
       </c>
       <c r="S6">
-        <v>0.196591982630962</v>
+        <v>0.2791366321824066</v>
       </c>
       <c r="T6">
-        <v>0.196591982630962</v>
+        <v>0.2791366321824066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J7">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>583667.3863130825</v>
       </c>
       <c r="R7">
-        <v>5253006.476817742</v>
+        <v>5253006.476817743</v>
       </c>
       <c r="S7">
-        <v>0.3238684188363814</v>
+        <v>0.2706624137951449</v>
       </c>
       <c r="T7">
-        <v>0.3238684188363815</v>
+        <v>0.2706624137951448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J8">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>516589.6004046659</v>
+        <v>594363.8254312156</v>
       </c>
       <c r="R8">
-        <v>4649306.403641993</v>
+        <v>5349274.42888094</v>
       </c>
       <c r="S8">
-        <v>0.2866479453772885</v>
+        <v>0.2756226430260681</v>
       </c>
       <c r="T8">
-        <v>0.2866479453772886</v>
+        <v>0.275622643026068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J9">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>234160.2117064914</v>
+        <v>237134.3941187155</v>
       </c>
       <c r="R9">
-        <v>2107441.905358422</v>
+        <v>2134209.54706844</v>
       </c>
       <c r="S9">
-        <v>0.1299320457132656</v>
+        <v>0.1099656568297486</v>
       </c>
       <c r="T9">
-        <v>0.1299320457132656</v>
+        <v>0.1099656568297486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H10">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I10">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J10">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>23078.69377499519</v>
+        <v>38197.53812048372</v>
       </c>
       <c r="R10">
-        <v>207708.2439749567</v>
+        <v>343777.8430843535</v>
       </c>
       <c r="S10">
-        <v>0.01280602657779372</v>
+        <v>0.01771323550220858</v>
       </c>
       <c r="T10">
-        <v>0.01280602657779373</v>
+        <v>0.01771323550220858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H11">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I11">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J11">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>38020.16726057246</v>
+        <v>37037.91146253505</v>
       </c>
       <c r="R11">
-        <v>342181.5053451521</v>
+        <v>333341.2031628154</v>
       </c>
       <c r="S11">
-        <v>0.0210968297069991</v>
+        <v>0.0171754851366721</v>
       </c>
       <c r="T11">
-        <v>0.0210968297069991</v>
+        <v>0.01717548513667209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H12">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I12">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J12">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>33650.71181469481</v>
+        <v>37716.67778443691</v>
       </c>
       <c r="R12">
-        <v>302856.4063322534</v>
+        <v>339450.1000599323</v>
       </c>
       <c r="S12">
-        <v>0.01867228336499512</v>
+        <v>0.01749024750886718</v>
       </c>
       <c r="T12">
-        <v>0.01867228336499512</v>
+        <v>0.01749024750886718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H13">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I13">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J13">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>15253.22576457329</v>
+        <v>15047.8901169572</v>
       </c>
       <c r="R13">
-        <v>137279.0318811595</v>
+        <v>135431.0110526148</v>
       </c>
       <c r="S13">
-        <v>0.008463789867945165</v>
+        <v>0.006978115202405735</v>
       </c>
       <c r="T13">
-        <v>0.008463789867945168</v>
+        <v>0.006978115202405734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H14">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>90.61257336644533</v>
+        <v>401.3552081821944</v>
       </c>
       <c r="R14">
-        <v>815.513160298008</v>
+        <v>3612.196873639749</v>
       </c>
       <c r="S14">
-        <v>5.027957969052017E-05</v>
+        <v>0.0001861193069601715</v>
       </c>
       <c r="T14">
-        <v>5.027957969052018E-05</v>
+        <v>0.0001861193069601715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H15">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>149.2764377781109</v>
+        <v>389.1705957276805</v>
       </c>
       <c r="R15">
-        <v>1343.487940002998</v>
+        <v>3502.535361549124</v>
       </c>
       <c r="S15">
-        <v>8.283129228466298E-05</v>
+        <v>0.0001804689713487723</v>
       </c>
       <c r="T15">
-        <v>8.283129228466301E-05</v>
+        <v>0.0001804689713487723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H16">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>132.1208913671622</v>
+        <v>396.3026364779166</v>
       </c>
       <c r="R16">
-        <v>1189.08802230446</v>
+        <v>3566.72372830125</v>
       </c>
       <c r="S16">
-        <v>7.331193276470557E-05</v>
+        <v>0.0001837762922819121</v>
       </c>
       <c r="T16">
-        <v>7.331193276470559E-05</v>
+        <v>0.000183776292281912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H17">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>59.88787979694223</v>
+        <v>158.1135687735694</v>
       </c>
       <c r="R17">
-        <v>538.9909181724801</v>
+        <v>1423.022118962125</v>
       </c>
       <c r="S17">
-        <v>3.323090066727651E-05</v>
+        <v>7.332155467577086E-05</v>
       </c>
       <c r="T17">
-        <v>3.323090066727652E-05</v>
+        <v>7.332155467577085E-05</v>
       </c>
     </row>
   </sheetData>
